--- a/transformacion/staging/stg_fuente_poai_2025.xlsx
+++ b/transformacion/staging/stg_fuente_poai_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>Col1</t>
   </si>
@@ -71,6 +71,9 @@
     <t>Avance en el Cargue de información</t>
   </si>
   <si>
+    <t>Col19</t>
+  </si>
+  <si>
     <t>Hoja</t>
   </si>
   <si>
@@ -137,14 +140,10 @@
     <t>ARMANDO ZAMBRANO</t>
   </si>
   <si>
-    <t>DIANA CABAL
-SARA DIANA URBANO</t>
-  </si>
-  <si>
     <t>RUTH ZARATE</t>
   </si>
   <si>
-    <t>DIANA CABAL</t>
+    <t>LUZ MIRYAN Y WILLIAN MOSQUERA</t>
   </si>
   <si>
     <t>KATTY ANGULO</t>
@@ -163,6 +162,9 @@
   <si>
     <t>TATIANA OROBIO
 CATALINA REYES</t>
+  </si>
+  <si>
+    <t>ANDREA GONZALEZ</t>
   </si>
   <si>
     <t>EDUARDO LOZANO</t>
@@ -592,13 +594,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,13 +658,16 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>2024003760153</v>
@@ -686,30 +691,30 @@
         <v>0.8</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
         <v>44</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R2">
         <v>0.5</v>
       </c>
-      <c r="S2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>2024003760117</v>
@@ -733,30 +738,30 @@
         <v>0.8288995994881756</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
         <v>45</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R3">
         <v>0.25</v>
       </c>
-      <c r="S3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>2024003760111</v>
@@ -780,30 +785,30 @@
         <v>0.9593012540295173</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
         <v>46</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
-      <c r="S4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>2024003760137</v>
@@ -827,30 +832,30 @@
         <v>0.5150501672240803</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M5" t="s">
         <v>47</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
-      <c r="S5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>2024003760182</v>
@@ -874,27 +879,30 @@
         <v>0.9994947166666667</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
-      <c r="S6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>2024003760136</v>
@@ -918,30 +926,30 @@
         <v>0.2674094403804895</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R7">
         <v>0.5</v>
       </c>
-      <c r="S7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>2024003760119</v>
@@ -965,30 +973,30 @@
         <v>0.08723971790961185</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R8">
         <v>0.5</v>
       </c>
-      <c r="S8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>2024003760189</v>
@@ -1012,30 +1020,30 @@
         <v>0.2903104184994345</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R9">
         <v>1</v>
       </c>
-      <c r="S9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>2024003760110</v>
@@ -1059,30 +1067,30 @@
         <v>0.4248375291510491</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L10" t="s">
         <v>41</v>
       </c>
       <c r="M10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R10">
         <v>1</v>
       </c>
-      <c r="S10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>2021003760242</v>
@@ -1106,27 +1114,27 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L11" t="s">
         <v>42</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R11">
         <v>0.5</v>
       </c>
-      <c r="S11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>2024003760134</v>
@@ -1150,27 +1158,27 @@
         <v>0.1395348837209302</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
         <v>43</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R12">
         <v>0.75</v>
       </c>
-      <c r="S12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>202500000015296</v>
@@ -1194,27 +1202,27 @@
         <v>0.9999999960513354</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
-      <c r="S13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>20250000016669</v>
@@ -1238,24 +1246,24 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
-      <c r="S14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>202500000023865</v>
@@ -1279,16 +1287,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
-      <c r="S15" t="s">
-        <v>66</v>
+      <c r="T15" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
